--- a/notebook/part_2_daily_report.xlsx
+++ b/notebook/part_2_daily_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive_d\Project\Code\xlwings_project\notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1413B8E8-B3DC-4591-9914-83AF5178F2D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4DF300-152F-4BB7-A8E1-3740BC3C77FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="18900" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intel vs AMD Daily Price" sheetId="4" r:id="rId1"/>
@@ -220,20 +220,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>391678</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>132598</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>141734</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>118494</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3640689C-BA83-4402-8700-AAC1CBBDFF35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2543DD8A-EA41-4291-A709-D8066E205F28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -255,8 +255,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3505200"/>
-          <a:ext cx="5001778" cy="4895098"/>
+          <a:off x="0" y="3505201"/>
+          <a:ext cx="7323584" cy="3737993"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -268,22 +268,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>116796</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>24976</xdr:rowOff>
+      <xdr:colOff>141734</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>118494</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04643275-4FB7-401D-AC6D-EB23DAC8D75D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{760AA6A7-8229-4011-A114-FF9D78F7C994}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -305,8 +305,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8401051" y="3505201"/>
-          <a:ext cx="7298645" cy="3834975"/>
+          <a:off x="8401050" y="3505201"/>
+          <a:ext cx="7323584" cy="3737993"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -338,7 +338,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD543531-1683-43ED-AB5A-82A2148D3575}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB2423F-A791-443D-8515-F30B000354EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -387,13 +387,13 @@
   </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{84126F28-5BA5-43DA-87E1-D851FF53831B}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{54DC2128-A369-42E7-8622-C353B5FB05D8}" name="BID"/>
-    <tableColumn id="3" xr3:uid="{C14958F1-6466-42E9-9BFF-CBF88449AFF6}" name="ASK"/>
-    <tableColumn id="4" xr3:uid="{F5FB5322-A544-423B-8E69-7EE0A0DDB9E3}" name="OPEN_PRC"/>
-    <tableColumn id="5" xr3:uid="{E5A6DD72-63BF-4C92-9F0A-99F1BCF62DC7}" name="HIGH_1"/>
-    <tableColumn id="6" xr3:uid="{4C01EFEB-F14D-4B88-97EC-0DA523687D30}" name="LOW_1"/>
-    <tableColumn id="7" xr3:uid="{F7CAE535-A7EB-4161-ABC7-3D8A7046AFB8}" name="TRDPRC_1"/>
-    <tableColumn id="8" xr3:uid="{63EAF607-8EAF-48B4-95EE-0955D56D4BE8}" name="BLKVOLUM"/>
+    <tableColumn id="2" xr3:uid="{6D27DF68-D96C-41A3-89AA-013D4E2D49E3}" name="BID"/>
+    <tableColumn id="3" xr3:uid="{C8BDBE66-2769-408A-AD1C-32ABF658355D}" name="ASK"/>
+    <tableColumn id="4" xr3:uid="{5FD026FF-B29B-4AAD-8052-026091026EDD}" name="OPEN_PRC"/>
+    <tableColumn id="5" xr3:uid="{EFEBCA01-D745-44F6-8FF4-34EDA03005DC}" name="HIGH_1"/>
+    <tableColumn id="6" xr3:uid="{22E13628-092D-4D4E-BCD3-E1033485197E}" name="LOW_1"/>
+    <tableColumn id="7" xr3:uid="{EAE9EA06-8BFF-4930-B447-F73CF7B8A05C}" name="TRDPRC_1"/>
+    <tableColumn id="8" xr3:uid="{92816BB5-D076-4DA7-A183-50C287FC9554}" name="BLKVOLUM"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -413,13 +413,13 @@
   </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A67C05C2-23BE-499F-A773-B002393BCD63}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{A2195E2B-E857-4147-8531-47A47B367535}" name="BID"/>
-    <tableColumn id="3" xr3:uid="{2F970668-490B-4170-AA9C-73243671A7CD}" name="ASK"/>
-    <tableColumn id="4" xr3:uid="{00A45C08-4EC2-43FC-A6FA-0994C5863A4F}" name="OPEN_PRC"/>
-    <tableColumn id="5" xr3:uid="{C3C90D75-0EFD-44BB-B932-5F32DF443748}" name="HIGH_1"/>
-    <tableColumn id="6" xr3:uid="{71CF3440-1502-45EC-8DDC-798C1BCA1B9E}" name="LOW_1"/>
-    <tableColumn id="7" xr3:uid="{08619435-43A5-4454-9D13-C9C2D08DAFA2}" name="TRDPRC_1"/>
-    <tableColumn id="8" xr3:uid="{6A2E9C69-6679-4143-90E6-5F6B8B4AD42F}" name="BLKVOLUM"/>
+    <tableColumn id="2" xr3:uid="{054E17C7-53F0-454D-AE0A-15455145A9F6}" name="BID"/>
+    <tableColumn id="3" xr3:uid="{AB8D833D-BB37-4394-B8D7-5CB7CE36D7BE}" name="ASK"/>
+    <tableColumn id="4" xr3:uid="{BD2C3CEB-DABF-46F2-A652-09EDA86A8C16}" name="OPEN_PRC"/>
+    <tableColumn id="5" xr3:uid="{B42B9412-E0E3-4CE8-835F-B02EECE54105}" name="HIGH_1"/>
+    <tableColumn id="6" xr3:uid="{FB561150-8651-477E-A885-BA769C02D10E}" name="LOW_1"/>
+    <tableColumn id="7" xr3:uid="{A234C001-C29B-4E73-A558-C331354BED1B}" name="TRDPRC_1"/>
+    <tableColumn id="8" xr3:uid="{BD8CAF00-9863-4B64-A758-D9BB7F3F0048}" name="BLKVOLUM"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -779,752 +779,752 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>44022</v>
+        <v>44033</v>
       </c>
       <c r="B3">
-        <v>59.54</v>
+        <v>60.7</v>
       </c>
       <c r="C3">
-        <v>59.55</v>
+        <v>60.72</v>
       </c>
       <c r="D3">
-        <v>57.95</v>
+        <v>61.515000000000001</v>
       </c>
       <c r="E3">
-        <v>59.69</v>
+        <v>61.927500000000002</v>
       </c>
       <c r="F3">
-        <v>57.83</v>
+        <v>60.44</v>
       </c>
       <c r="G3">
-        <v>59.53</v>
+        <v>60.7</v>
       </c>
       <c r="H3">
-        <v>3095904</v>
+        <v>4746290</v>
       </c>
       <c r="N3" s="5">
-        <v>44022</v>
+        <v>44033</v>
       </c>
       <c r="O3">
-        <v>55.88</v>
+        <v>56.99</v>
       </c>
       <c r="P3">
-        <v>55.9</v>
+        <v>57</v>
       </c>
       <c r="Q3">
-        <v>57.54</v>
+        <v>57.805</v>
       </c>
       <c r="R3">
-        <v>58.15</v>
+        <v>58.5</v>
       </c>
       <c r="S3">
-        <v>55.51</v>
+        <v>56.317300000000003</v>
       </c>
       <c r="T3">
-        <v>55.88</v>
+        <v>57</v>
       </c>
       <c r="U3">
-        <v>3211604</v>
+        <v>2291926</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>44025</v>
+        <v>44034</v>
       </c>
       <c r="B4">
-        <v>58.57</v>
+        <v>61.03</v>
       </c>
       <c r="C4">
-        <v>58.59</v>
+        <v>61.04</v>
       </c>
       <c r="D4">
-        <v>59.84</v>
+        <v>61.31</v>
       </c>
       <c r="E4">
+        <v>61.765000000000001</v>
+      </c>
+      <c r="F4">
         <v>60.62</v>
       </c>
-      <c r="F4">
-        <v>58.39</v>
-      </c>
       <c r="G4">
-        <v>58.58</v>
+        <v>61.05</v>
       </c>
       <c r="H4">
-        <v>2783448</v>
+        <v>3947594</v>
       </c>
       <c r="N4" s="5">
-        <v>44025</v>
+        <v>44034</v>
       </c>
       <c r="O4">
-        <v>53.59</v>
+        <v>61.78</v>
       </c>
       <c r="P4">
-        <v>53.61</v>
+        <v>61.79</v>
       </c>
       <c r="Q4">
-        <v>56.68</v>
+        <v>57.07</v>
       </c>
       <c r="R4">
-        <v>58.35</v>
+        <v>62</v>
       </c>
       <c r="S4">
-        <v>53.38</v>
+        <v>56.97</v>
       </c>
       <c r="T4">
-        <v>53.59</v>
+        <v>61.79</v>
       </c>
       <c r="U4">
-        <v>3512482</v>
+        <v>6837200</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>44026</v>
+        <v>44035</v>
       </c>
       <c r="B5">
-        <v>58.95</v>
+        <v>60.48</v>
       </c>
       <c r="C5">
-        <v>58.96</v>
+        <v>60.51</v>
       </c>
       <c r="D5">
-        <v>57.8735</v>
+        <v>61.255000000000003</v>
       </c>
       <c r="E5">
-        <v>59.25</v>
+        <v>61.74</v>
       </c>
       <c r="F5">
-        <v>57.344999999999999</v>
+        <v>59.98</v>
       </c>
       <c r="G5">
-        <v>58.98</v>
+        <v>60.4</v>
       </c>
       <c r="H5">
-        <v>6630416</v>
+        <v>6101642</v>
       </c>
       <c r="N5" s="5">
-        <v>44026</v>
+        <v>44035</v>
       </c>
       <c r="O5">
-        <v>54.7</v>
+        <v>59.59</v>
       </c>
       <c r="P5">
-        <v>54.72</v>
+        <v>59.6</v>
       </c>
       <c r="Q5">
-        <v>53.3</v>
+        <v>61.63</v>
       </c>
       <c r="R5">
-        <v>54.86</v>
+        <v>62.33</v>
       </c>
       <c r="S5">
-        <v>52.26</v>
+        <v>58.6342</v>
       </c>
       <c r="T5">
-        <v>54.72</v>
+        <v>59.57</v>
       </c>
       <c r="U5">
-        <v>2781222</v>
+        <v>6591082</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>44027</v>
+        <v>44036</v>
       </c>
       <c r="B6">
-        <v>59.02</v>
+        <v>50.58</v>
       </c>
       <c r="C6">
-        <v>59.03</v>
+        <v>50.59</v>
       </c>
       <c r="D6">
-        <v>59.03</v>
+        <v>52.15</v>
       </c>
       <c r="E6">
-        <v>59.34</v>
+        <v>52.18</v>
       </c>
       <c r="F6">
-        <v>58.42</v>
+        <v>49.5</v>
       </c>
       <c r="G6">
-        <v>59.03</v>
+        <v>50.59</v>
       </c>
       <c r="H6">
-        <v>5529813</v>
+        <v>16019857</v>
       </c>
       <c r="N6" s="5">
-        <v>44027</v>
+        <v>44036</v>
       </c>
       <c r="O6">
-        <v>55.33</v>
+        <v>69.42</v>
       </c>
       <c r="P6">
-        <v>55.34</v>
+        <v>69.430000000000007</v>
       </c>
       <c r="Q6">
-        <v>54.96</v>
+        <v>64.180000000000007</v>
       </c>
       <c r="R6">
-        <v>55.37</v>
+        <v>69.94</v>
       </c>
       <c r="S6">
-        <v>53.59</v>
+        <v>64.05</v>
       </c>
       <c r="T6">
-        <v>55.34</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="U6">
-        <v>3931487</v>
+        <v>11847972</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>44028</v>
+        <v>44039</v>
       </c>
       <c r="B7">
-        <v>59.14</v>
+        <v>49.56</v>
       </c>
       <c r="C7">
-        <v>59.15</v>
+        <v>49.57</v>
       </c>
       <c r="D7">
-        <v>58.54</v>
+        <v>51.03</v>
       </c>
       <c r="E7">
-        <v>59.36</v>
+        <v>51.14</v>
       </c>
       <c r="F7">
-        <v>58.4</v>
+        <v>49.465000000000003</v>
       </c>
       <c r="G7">
-        <v>59.14</v>
+        <v>49.57</v>
       </c>
       <c r="H7">
-        <v>1813790</v>
+        <v>39240052</v>
       </c>
       <c r="N7" s="5">
-        <v>44028</v>
+        <v>44039</v>
       </c>
       <c r="O7">
-        <v>54.91</v>
+        <v>68.959999999999994</v>
       </c>
       <c r="P7">
-        <v>54.92</v>
+        <v>68.98</v>
       </c>
       <c r="Q7">
-        <v>54.68</v>
+        <v>69.28</v>
       </c>
       <c r="R7">
-        <v>55.15</v>
+        <v>71.63</v>
       </c>
       <c r="S7">
-        <v>53.74</v>
+        <v>67.790000000000006</v>
       </c>
       <c r="T7">
-        <v>54.92</v>
+        <v>68.97</v>
       </c>
       <c r="U7">
-        <v>2785912</v>
+        <v>7895400</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>44029</v>
+        <v>44040</v>
       </c>
       <c r="B8">
-        <v>59.99</v>
+        <v>49.24</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>49.25</v>
       </c>
       <c r="D8">
-        <v>59.42</v>
+        <v>49.48</v>
       </c>
       <c r="E8">
-        <v>60.46</v>
+        <v>50.23</v>
       </c>
       <c r="F8">
-        <v>59.28</v>
+        <v>49.14</v>
       </c>
       <c r="G8">
-        <v>60</v>
+        <v>49.24</v>
       </c>
       <c r="H8">
-        <v>3465688</v>
+        <v>13759417</v>
       </c>
       <c r="N8" s="5">
-        <v>44029</v>
+        <v>44040</v>
       </c>
       <c r="O8">
-        <v>55.04</v>
+        <v>67.709999999999994</v>
       </c>
       <c r="P8">
-        <v>55.05</v>
+        <v>67.760000000000005</v>
       </c>
       <c r="Q8">
-        <v>55.31</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="R8">
-        <v>55.81</v>
+        <v>69.8</v>
       </c>
       <c r="S8">
-        <v>54.68</v>
+        <v>67.02</v>
       </c>
       <c r="T8">
-        <v>55.04</v>
+        <v>67.61</v>
       </c>
       <c r="U8">
-        <v>3111670</v>
+        <v>4318006</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>44032</v>
+        <v>44041</v>
       </c>
       <c r="B9">
-        <v>61.14</v>
+        <v>48.07</v>
       </c>
       <c r="C9">
-        <v>61.15</v>
+        <v>48.08</v>
       </c>
       <c r="D9">
-        <v>60.08</v>
+        <v>49.49</v>
       </c>
       <c r="E9">
-        <v>61.38</v>
+        <v>49.5</v>
       </c>
       <c r="F9">
-        <v>59.34</v>
+        <v>47.9</v>
       </c>
       <c r="G9">
-        <v>61.15</v>
+        <v>48.07</v>
       </c>
       <c r="H9">
-        <v>3085279</v>
+        <v>6788006</v>
       </c>
       <c r="N9" s="5">
-        <v>44032</v>
+        <v>44041</v>
       </c>
       <c r="O9">
-        <v>57.45</v>
+        <v>76.09</v>
       </c>
       <c r="P9">
-        <v>57.46</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="Q9">
-        <v>55.23</v>
+        <v>75.5</v>
       </c>
       <c r="R9">
-        <v>57.53</v>
+        <v>77.19</v>
       </c>
       <c r="S9">
-        <v>54.83</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="T9">
-        <v>57.46</v>
+        <v>76.09</v>
       </c>
       <c r="U9">
-        <v>3018017</v>
+        <v>7342794</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>44033</v>
+        <v>44042</v>
       </c>
       <c r="B10">
-        <v>60.7</v>
+        <v>48</v>
       </c>
       <c r="C10">
-        <v>60.72</v>
+        <v>48.01</v>
       </c>
       <c r="D10">
-        <v>61.515000000000001</v>
+        <v>47.83</v>
       </c>
       <c r="E10">
-        <v>61.927500000000002</v>
+        <v>48.5</v>
       </c>
       <c r="F10">
-        <v>60.44</v>
+        <v>47.59</v>
       </c>
       <c r="G10">
-        <v>60.7</v>
+        <v>47.99</v>
       </c>
       <c r="H10">
-        <v>4746290</v>
+        <v>3884370</v>
       </c>
       <c r="N10" s="5">
-        <v>44033</v>
+        <v>44042</v>
       </c>
       <c r="O10">
-        <v>56.99</v>
+        <v>78.19</v>
       </c>
       <c r="P10">
-        <v>57</v>
+        <v>78.2</v>
       </c>
       <c r="Q10">
-        <v>57.805</v>
+        <v>75.37</v>
       </c>
       <c r="R10">
-        <v>58.5</v>
+        <v>78.959999999999994</v>
       </c>
       <c r="S10">
-        <v>56.317300000000003</v>
+        <v>75.069999999999993</v>
       </c>
       <c r="T10">
-        <v>57</v>
+        <v>78.2</v>
       </c>
       <c r="U10">
-        <v>2291926</v>
+        <v>3576867</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>44034</v>
+        <v>44043</v>
       </c>
       <c r="B11">
-        <v>61.03</v>
+        <v>47.73</v>
       </c>
       <c r="C11">
-        <v>61.04</v>
+        <v>47.74</v>
       </c>
       <c r="D11">
-        <v>61.31</v>
+        <v>48.13</v>
       </c>
       <c r="E11">
-        <v>61.765000000000001</v>
+        <v>48.321599999999997</v>
       </c>
       <c r="F11">
-        <v>60.62</v>
+        <v>46.97</v>
       </c>
       <c r="G11">
-        <v>61.05</v>
+        <v>47.73</v>
       </c>
       <c r="H11">
-        <v>3947594</v>
+        <v>10051456</v>
       </c>
       <c r="N11" s="5">
-        <v>44034</v>
+        <v>44043</v>
       </c>
       <c r="O11">
-        <v>61.78</v>
+        <v>77.42</v>
       </c>
       <c r="P11">
-        <v>61.79</v>
+        <v>77.430000000000007</v>
       </c>
       <c r="Q11">
-        <v>57.07</v>
+        <v>78.67</v>
       </c>
       <c r="R11">
-        <v>62</v>
+        <v>78.959999999999994</v>
       </c>
       <c r="S11">
-        <v>56.97</v>
+        <v>75.36</v>
       </c>
       <c r="T11">
-        <v>61.79</v>
+        <v>77.430000000000007</v>
       </c>
       <c r="U11">
-        <v>6837200</v>
+        <v>4718367</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>44035</v>
+        <v>44046</v>
       </c>
       <c r="B12">
-        <v>60.48</v>
+        <v>48.28</v>
       </c>
       <c r="C12">
-        <v>60.51</v>
+        <v>48.29</v>
       </c>
       <c r="D12">
-        <v>61.255000000000003</v>
+        <v>48.27</v>
       </c>
       <c r="E12">
-        <v>61.74</v>
+        <v>48.6267</v>
       </c>
       <c r="F12">
-        <v>59.98</v>
+        <v>47.74</v>
       </c>
       <c r="G12">
-        <v>60.4</v>
+        <v>48.3</v>
       </c>
       <c r="H12">
-        <v>6101642</v>
+        <v>5617516</v>
       </c>
       <c r="N12" s="5">
-        <v>44035</v>
+        <v>44046</v>
       </c>
       <c r="O12">
-        <v>59.59</v>
+        <v>77.650000000000006</v>
       </c>
       <c r="P12">
-        <v>59.6</v>
+        <v>77.66</v>
       </c>
       <c r="Q12">
-        <v>61.63</v>
+        <v>78.19</v>
       </c>
       <c r="R12">
-        <v>62.33</v>
+        <v>78.5</v>
       </c>
       <c r="S12">
-        <v>58.6342</v>
+        <v>77.06</v>
       </c>
       <c r="T12">
-        <v>59.57</v>
+        <v>77.67</v>
       </c>
       <c r="U12">
-        <v>6591082</v>
+        <v>2743098</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>44036</v>
+        <v>44047</v>
       </c>
       <c r="B13">
-        <v>50.58</v>
+        <v>49.13</v>
       </c>
       <c r="C13">
-        <v>50.59</v>
+        <v>49.14</v>
       </c>
       <c r="D13">
-        <v>52.15</v>
+        <v>48.6</v>
       </c>
       <c r="E13">
-        <v>52.18</v>
+        <v>49.14</v>
       </c>
       <c r="F13">
-        <v>49.5</v>
+        <v>48.5</v>
       </c>
       <c r="G13">
-        <v>50.59</v>
+        <v>49.13</v>
       </c>
       <c r="H13">
-        <v>16019857</v>
+        <v>4870512</v>
       </c>
       <c r="N13" s="5">
-        <v>44036</v>
+        <v>44047</v>
       </c>
       <c r="O13">
-        <v>69.42</v>
+        <v>85.04</v>
       </c>
       <c r="P13">
-        <v>69.430000000000007</v>
+        <v>85.05</v>
       </c>
       <c r="Q13">
-        <v>64.180000000000007</v>
+        <v>78.03</v>
       </c>
       <c r="R13">
-        <v>69.94</v>
+        <v>85.805000000000007</v>
       </c>
       <c r="S13">
-        <v>64.05</v>
+        <v>77.989999999999995</v>
       </c>
       <c r="T13">
-        <v>69.400000000000006</v>
+        <v>85.04</v>
       </c>
       <c r="U13">
-        <v>11847972</v>
+        <v>9498960</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>44039</v>
+        <v>44048</v>
       </c>
       <c r="B14">
-        <v>49.56</v>
+        <v>48.92</v>
       </c>
       <c r="C14">
-        <v>49.57</v>
+        <v>48.93</v>
       </c>
       <c r="D14">
-        <v>51.03</v>
+        <v>49.72</v>
       </c>
       <c r="E14">
-        <v>51.14</v>
+        <v>49.72</v>
       </c>
       <c r="F14">
-        <v>49.465000000000003</v>
+        <v>48.66</v>
       </c>
       <c r="G14">
-        <v>49.57</v>
+        <v>48.92</v>
       </c>
       <c r="H14">
-        <v>39240052</v>
+        <v>6427933</v>
       </c>
       <c r="N14" s="5">
-        <v>44039</v>
+        <v>44048</v>
       </c>
       <c r="O14">
-        <v>68.959999999999994</v>
+        <v>85.31</v>
       </c>
       <c r="P14">
-        <v>68.98</v>
+        <v>85.33</v>
       </c>
       <c r="Q14">
-        <v>69.28</v>
+        <v>84.96</v>
       </c>
       <c r="R14">
-        <v>71.63</v>
+        <v>86.32</v>
       </c>
       <c r="S14">
-        <v>67.790000000000006</v>
+        <v>83.32</v>
       </c>
       <c r="T14">
-        <v>68.97</v>
+        <v>85.31</v>
       </c>
       <c r="U14">
-        <v>7895400</v>
+        <v>2882107</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>44040</v>
+        <v>44049</v>
       </c>
       <c r="B15">
-        <v>49.24</v>
+        <v>48.57</v>
       </c>
       <c r="C15">
-        <v>49.25</v>
+        <v>48.58</v>
       </c>
       <c r="D15">
-        <v>49.48</v>
+        <v>48.79</v>
       </c>
       <c r="E15">
-        <v>50.23</v>
+        <v>48.82</v>
       </c>
       <c r="F15">
-        <v>49.14</v>
+        <v>48.1</v>
       </c>
       <c r="G15">
-        <v>49.24</v>
+        <v>48.57</v>
       </c>
       <c r="H15">
-        <v>13759417</v>
+        <v>4123124</v>
       </c>
       <c r="N15" s="5">
-        <v>44040</v>
+        <v>44049</v>
       </c>
       <c r="O15">
-        <v>67.709999999999994</v>
+        <v>86.7</v>
       </c>
       <c r="P15">
-        <v>67.760000000000005</v>
+        <v>86.72</v>
       </c>
       <c r="Q15">
-        <v>68.099999999999994</v>
+        <v>85.49</v>
       </c>
       <c r="R15">
-        <v>69.8</v>
+        <v>86.98</v>
       </c>
       <c r="S15">
-        <v>67.02</v>
+        <v>84.780100000000004</v>
       </c>
       <c r="T15">
-        <v>67.61</v>
+        <v>86.71</v>
       </c>
       <c r="U15">
-        <v>4318006</v>
+        <v>2350458</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>44041</v>
+        <v>44050</v>
       </c>
       <c r="B16">
-        <v>48.07</v>
+        <v>48.03</v>
       </c>
       <c r="C16">
-        <v>48.08</v>
+        <v>48.04</v>
       </c>
       <c r="D16">
-        <v>49.49</v>
+        <v>48.53</v>
       </c>
       <c r="E16">
-        <v>49.5</v>
+        <v>48.65</v>
       </c>
       <c r="F16">
-        <v>47.9</v>
+        <v>47.7</v>
       </c>
       <c r="G16">
-        <v>48.07</v>
+        <v>48.03</v>
       </c>
       <c r="H16">
-        <v>6788006</v>
+        <v>12055972</v>
       </c>
       <c r="N16" s="5">
-        <v>44041</v>
+        <v>44050</v>
       </c>
       <c r="O16">
-        <v>76.09</v>
+        <v>84.82</v>
       </c>
       <c r="P16">
-        <v>76.099999999999994</v>
+        <v>84.85</v>
       </c>
       <c r="Q16">
-        <v>75.5</v>
+        <v>86.67</v>
       </c>
       <c r="R16">
-        <v>77.19</v>
+        <v>87.29</v>
       </c>
       <c r="S16">
-        <v>73.900000000000006</v>
+        <v>82.670199999999994</v>
       </c>
       <c r="T16">
-        <v>76.09</v>
+        <v>84.85</v>
       </c>
       <c r="U16">
-        <v>7342794</v>
+        <v>2902196</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>44042</v>
+        <v>44053</v>
       </c>
       <c r="B17">
-        <v>48</v>
+        <v>49.22</v>
       </c>
       <c r="C17">
-        <v>48.01</v>
+        <v>49.23</v>
       </c>
       <c r="D17">
-        <v>47.83</v>
+        <v>48.2</v>
       </c>
       <c r="E17">
-        <v>48.5</v>
+        <v>49.39</v>
       </c>
       <c r="F17">
-        <v>47.59</v>
+        <v>48.06</v>
       </c>
       <c r="G17">
-        <v>47.99</v>
+        <v>49.22</v>
       </c>
       <c r="H17">
-        <v>3884370</v>
+        <v>13730994</v>
       </c>
       <c r="N17" s="5">
-        <v>44042</v>
+        <v>44053</v>
       </c>
       <c r="O17">
-        <v>78.19</v>
+        <v>82.23</v>
       </c>
       <c r="P17">
-        <v>78.2</v>
+        <v>82.24</v>
       </c>
       <c r="Q17">
-        <v>75.37</v>
+        <v>85.05</v>
       </c>
       <c r="R17">
-        <v>78.959999999999994</v>
+        <v>85.16</v>
       </c>
       <c r="S17">
-        <v>75.069999999999993</v>
+        <v>79.322100000000006</v>
       </c>
       <c r="T17">
-        <v>78.2</v>
+        <v>82.24</v>
       </c>
       <c r="U17">
-        <v>3576867</v>
+        <v>3337267</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
